--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fgf2-Fgfr3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fgf2-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +95,6 @@
   </si>
   <si>
     <t>Fgfr3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H2">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I2">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J2">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.37353053500684</v>
+        <v>5.495057333333333</v>
       </c>
       <c r="N2">
-        <v>5.37353053500684</v>
+        <v>16.485172</v>
       </c>
       <c r="O2">
-        <v>0.8313560794454259</v>
+        <v>0.8161989011161211</v>
       </c>
       <c r="P2">
-        <v>0.8313560794454259</v>
+        <v>0.8403205285996808</v>
       </c>
       <c r="Q2">
-        <v>59.02395719802735</v>
+        <v>3.849892118306666</v>
       </c>
       <c r="R2">
-        <v>59.02395719802735</v>
+        <v>34.64902906476</v>
       </c>
       <c r="S2">
-        <v>0.608537660062881</v>
+        <v>0.03293015583774905</v>
       </c>
       <c r="T2">
-        <v>0.608537660062881</v>
+        <v>0.03690885457490427</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H3">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I3">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J3">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.520950252734417</v>
+        <v>0.657666</v>
       </c>
       <c r="N3">
-        <v>0.520950252734417</v>
+        <v>1.972998</v>
       </c>
       <c r="O3">
-        <v>0.08059787822510947</v>
+        <v>0.09768528951377062</v>
       </c>
       <c r="P3">
-        <v>0.08059787822510947</v>
+        <v>0.1005722428790014</v>
       </c>
       <c r="Q3">
-        <v>5.722224005126756</v>
+        <v>0.46076737626</v>
       </c>
       <c r="R3">
-        <v>5.722224005126756</v>
+        <v>4.14690638634</v>
       </c>
       <c r="S3">
-        <v>0.058996193609192</v>
+        <v>0.003941186152474915</v>
       </c>
       <c r="T3">
-        <v>0.058996193609192</v>
+        <v>0.004417369515985456</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H4">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I4">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J4">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5690920035846579</v>
+        <v>0.5797745</v>
       </c>
       <c r="N4">
-        <v>0.5690920035846579</v>
+        <v>1.159549</v>
       </c>
       <c r="O4">
-        <v>0.08804604232946472</v>
+        <v>0.08611580937010824</v>
       </c>
       <c r="P4">
-        <v>0.08804604232946472</v>
+        <v>0.0591072285213179</v>
       </c>
       <c r="Q4">
-        <v>6.251022831728958</v>
+        <v>0.406195812445</v>
       </c>
       <c r="R4">
-        <v>6.251022831728958</v>
+        <v>2.43717487467</v>
       </c>
       <c r="S4">
-        <v>0.06444811543654205</v>
+        <v>0.003474406812816943</v>
       </c>
       <c r="T4">
-        <v>0.06444811543654205</v>
+        <v>0.002596128533780277</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +711,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.02190891456284</v>
+        <v>11.86561333333333</v>
       </c>
       <c r="H5">
-        <v>4.02190891456284</v>
+        <v>35.59684</v>
       </c>
       <c r="I5">
-        <v>0.268018030891385</v>
+        <v>0.6833003453286129</v>
       </c>
       <c r="J5">
-        <v>0.268018030891385</v>
+        <v>0.7438741281663874</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.37353053500684</v>
+        <v>5.495057333333333</v>
       </c>
       <c r="N5">
-        <v>5.37353053500684</v>
+        <v>16.485172</v>
       </c>
       <c r="O5">
-        <v>0.8313560794454259</v>
+        <v>0.8161989011161211</v>
       </c>
       <c r="P5">
-        <v>0.8313560794454259</v>
+        <v>0.8403205285996808</v>
       </c>
       <c r="Q5">
-        <v>21.61185036141964</v>
+        <v>65.2022255618311</v>
       </c>
       <c r="R5">
-        <v>21.61185036141964</v>
+        <v>586.8200300564799</v>
       </c>
       <c r="S5">
-        <v>0.2228184193825449</v>
+        <v>0.55770899098948</v>
       </c>
       <c r="T5">
-        <v>0.2228184193825449</v>
+        <v>0.6250927005924054</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.02190891456284</v>
+        <v>11.86561333333333</v>
       </c>
       <c r="H6">
-        <v>4.02190891456284</v>
+        <v>35.59684</v>
       </c>
       <c r="I6">
-        <v>0.268018030891385</v>
+        <v>0.6833003453286129</v>
       </c>
       <c r="J6">
-        <v>0.268018030891385</v>
+        <v>0.7438741281663874</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.520950252734417</v>
+        <v>0.657666</v>
       </c>
       <c r="N6">
-        <v>0.520950252734417</v>
+        <v>1.972998</v>
       </c>
       <c r="O6">
-        <v>0.08059787822510947</v>
+        <v>0.09768528951377062</v>
       </c>
       <c r="P6">
-        <v>0.08059787822510947</v>
+        <v>0.1005722428790014</v>
       </c>
       <c r="Q6">
-        <v>2.095214465516317</v>
+        <v>7.803610458480001</v>
       </c>
       <c r="R6">
-        <v>2.095214465516317</v>
+        <v>70.23249412632001</v>
       </c>
       <c r="S6">
-        <v>0.02160168461591748</v>
+        <v>0.06674839205828499</v>
       </c>
       <c r="T6">
-        <v>0.02160168461591748</v>
+        <v>0.07481308948935533</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +835,619 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>11.86561333333333</v>
+      </c>
+      <c r="H7">
+        <v>35.59684</v>
+      </c>
+      <c r="I7">
+        <v>0.6833003453286129</v>
+      </c>
+      <c r="J7">
+        <v>0.7438741281663874</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.5797745</v>
+      </c>
+      <c r="N7">
+        <v>1.159549</v>
+      </c>
+      <c r="O7">
+        <v>0.08611580937010824</v>
+      </c>
+      <c r="P7">
+        <v>0.0591072285213179</v>
+      </c>
+      <c r="Q7">
+        <v>6.879380037526666</v>
+      </c>
+      <c r="R7">
+        <v>41.27628022516</v>
+      </c>
+      <c r="S7">
+        <v>0.05884296228084796</v>
+      </c>
+      <c r="T7">
+        <v>0.04396833808462679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H8">
+        <v>1.371554</v>
+      </c>
+      <c r="I8">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J8">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>5.495057333333333</v>
+      </c>
+      <c r="N8">
+        <v>16.485172</v>
+      </c>
+      <c r="O8">
+        <v>0.8161989011161211</v>
+      </c>
+      <c r="P8">
+        <v>0.8403205285996808</v>
+      </c>
+      <c r="Q8">
+        <v>2.512255955254222</v>
+      </c>
+      <c r="R8">
+        <v>22.610303597288</v>
+      </c>
+      <c r="S8">
+        <v>0.02148864892017339</v>
+      </c>
+      <c r="T8">
+        <v>0.02408495793076902</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H9">
+        <v>1.371554</v>
+      </c>
+      <c r="I9">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J9">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.657666</v>
+      </c>
+      <c r="N9">
+        <v>1.972998</v>
+      </c>
+      <c r="O9">
+        <v>0.09768528951377062</v>
+      </c>
+      <c r="P9">
+        <v>0.1005722428790014</v>
+      </c>
+      <c r="Q9">
+        <v>0.300674810988</v>
+      </c>
+      <c r="R9">
+        <v>2.706073298892</v>
+      </c>
+      <c r="S9">
+        <v>0.002571830087196195</v>
+      </c>
+      <c r="T9">
+        <v>0.002882564636116106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H10">
+        <v>1.371554</v>
+      </c>
+      <c r="I10">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J10">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.5797745</v>
+      </c>
+      <c r="N10">
+        <v>1.159549</v>
+      </c>
+      <c r="O10">
+        <v>0.08611580937010824</v>
+      </c>
+      <c r="P10">
+        <v>0.0591072285213179</v>
+      </c>
+      <c r="Q10">
+        <v>0.2650640115243333</v>
+      </c>
+      <c r="R10">
+        <v>1.590384069146</v>
+      </c>
+      <c r="S10">
+        <v>0.002267232155667361</v>
+      </c>
+      <c r="T10">
+        <v>0.001694109644938208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H11">
+        <v>0.298806</v>
+      </c>
+      <c r="I11">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J11">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.495057333333333</v>
+      </c>
+      <c r="N11">
+        <v>16.485172</v>
+      </c>
+      <c r="O11">
+        <v>0.8161989011161211</v>
+      </c>
+      <c r="P11">
+        <v>0.8403205285996808</v>
+      </c>
+      <c r="Q11">
+        <v>0.5473187005146667</v>
+      </c>
+      <c r="R11">
+        <v>4.925868304632</v>
+      </c>
+      <c r="S11">
+        <v>0.004681505233655643</v>
+      </c>
+      <c r="T11">
+        <v>0.00524713568657258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>4.02190891456284</v>
-      </c>
-      <c r="H7">
-        <v>4.02190891456284</v>
-      </c>
-      <c r="I7">
-        <v>0.268018030891385</v>
-      </c>
-      <c r="J7">
-        <v>0.268018030891385</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.5690920035846579</v>
-      </c>
-      <c r="N7">
-        <v>0.5690920035846579</v>
-      </c>
-      <c r="O7">
-        <v>0.08804604232946472</v>
-      </c>
-      <c r="P7">
-        <v>0.08804604232946472</v>
-      </c>
-      <c r="Q7">
-        <v>2.288836202423564</v>
-      </c>
-      <c r="R7">
-        <v>2.288836202423564</v>
-      </c>
-      <c r="S7">
-        <v>0.02359792689292267</v>
-      </c>
-      <c r="T7">
-        <v>0.02359792689292267</v>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H12">
+        <v>0.298806</v>
+      </c>
+      <c r="I12">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J12">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.657666</v>
+      </c>
+      <c r="N12">
+        <v>1.972998</v>
+      </c>
+      <c r="O12">
+        <v>0.09768528951377062</v>
+      </c>
+      <c r="P12">
+        <v>0.1005722428790014</v>
+      </c>
+      <c r="Q12">
+        <v>0.06550484893200001</v>
+      </c>
+      <c r="R12">
+        <v>0.589543640388</v>
+      </c>
+      <c r="S12">
+        <v>0.0005602974881300674</v>
+      </c>
+      <c r="T12">
+        <v>0.000627993946034432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.298806</v>
+      </c>
+      <c r="I13">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J13">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5797745</v>
+      </c>
+      <c r="N13">
+        <v>1.159549</v>
+      </c>
+      <c r="O13">
+        <v>0.08611580937010824</v>
+      </c>
+      <c r="P13">
+        <v>0.0591072285213179</v>
+      </c>
+      <c r="Q13">
+        <v>0.057746699749</v>
+      </c>
+      <c r="R13">
+        <v>0.346480198494</v>
+      </c>
+      <c r="S13">
+        <v>0.0004939379503150015</v>
+      </c>
+      <c r="T13">
+        <v>0.0003690777953805729</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.2421405</v>
+      </c>
+      <c r="H14">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J14">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5.495057333333333</v>
+      </c>
+      <c r="N14">
+        <v>16.485172</v>
+      </c>
+      <c r="O14">
+        <v>0.8161989011161211</v>
+      </c>
+      <c r="P14">
+        <v>0.8403205285996808</v>
+      </c>
+      <c r="Q14">
+        <v>23.31080526355533</v>
+      </c>
+      <c r="R14">
+        <v>139.864831581332</v>
+      </c>
+      <c r="S14">
+        <v>0.1993896001350632</v>
+      </c>
+      <c r="T14">
+        <v>0.1489868798150294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.2421405</v>
+      </c>
+      <c r="H15">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J15">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.657666</v>
+      </c>
+      <c r="N15">
+        <v>1.972998</v>
+      </c>
+      <c r="O15">
+        <v>0.09768528951377062</v>
+      </c>
+      <c r="P15">
+        <v>0.1005722428790014</v>
+      </c>
+      <c r="Q15">
+        <v>2.789911574073</v>
+      </c>
+      <c r="R15">
+        <v>16.739469444438</v>
+      </c>
+      <c r="S15">
+        <v>0.02386358372768446</v>
+      </c>
+      <c r="T15">
+        <v>0.01783122529151006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.2421405</v>
+      </c>
+      <c r="H16">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J16">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5797745</v>
+      </c>
+      <c r="N16">
+        <v>1.159549</v>
+      </c>
+      <c r="O16">
+        <v>0.08611580937010824</v>
+      </c>
+      <c r="P16">
+        <v>0.0591072285213179</v>
+      </c>
+      <c r="Q16">
+        <v>2.45948488731725</v>
+      </c>
+      <c r="R16">
+        <v>9.837939549268999</v>
+      </c>
+      <c r="S16">
+        <v>0.02103727017046099</v>
+      </c>
+      <c r="T16">
+        <v>0.01047957446259206</v>
       </c>
     </row>
   </sheetData>
